--- a/log/PSOELM_extracted_result_FIXED/PSOELM_subject_specific_result.xlsx
+++ b/log/PSOELM_extracted_result_FIXED/PSOELM_subject_specific_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="2 classes" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
   <si>
     <t>gBestFitness</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>6 8 9 11 12 13 16 17</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -696,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,6 +1090,29 @@
         <v>91</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B2:B19)</f>
+        <v>78.13903038824543</v>
+      </c>
+      <c r="C20" s="72">
+        <f t="shared" ref="C20:D20" si="0">AVERAGE(C2:C19)</f>
+        <v>85.122774626137428</v>
+      </c>
+      <c r="D20" s="72">
+        <f t="shared" si="0"/>
+        <v>82.223020941492933</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1091,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,6 +1508,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="72">
+        <f>AVERAGE(B2:B19)</f>
+        <v>73.197245679560581</v>
+      </c>
+      <c r="C20" s="72">
+        <f t="shared" ref="C20:D20" si="0">AVERAGE(C2:C19)</f>
+        <v>80.343915389894505</v>
+      </c>
+      <c r="D20" s="72">
+        <f t="shared" si="0"/>
+        <v>77.025040936249596</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1486,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,6 +1926,29 @@
         <v>93</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="72">
+        <f>AVERAGE(B2:B19)</f>
+        <v>67.932993131480714</v>
+      </c>
+      <c r="C20" s="72">
+        <f t="shared" ref="C20:D20" si="0">AVERAGE(C2:C19)</f>
+        <v>75.391508005964582</v>
+      </c>
+      <c r="D20" s="72">
+        <f t="shared" si="0"/>
+        <v>71.481123374268179</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,6 +2344,29 @@
         <v>94</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="72">
+        <f>AVERAGE(B2:B19)</f>
+        <v>60.057986982925094</v>
+      </c>
+      <c r="C20" s="72">
+        <f t="shared" ref="C20:D20" si="0">AVERAGE(C2:C19)</f>
+        <v>68.759146699100199</v>
+      </c>
+      <c r="D20" s="72">
+        <f t="shared" si="0"/>
+        <v>63.192780319908167</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
